--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbannister1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbannister1\workspace\AGA206\Roll-A-Ball\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -475,7 +475,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2475,7 +2475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="D7" s="8">
         <f>COUNTIFS(J12:J15,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="D8" s="8">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D9" s="8">
         <f>K39</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2611,11 +2611,11 @@
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="str">
         <f>IF(J13,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G13" s="17"/>
       <c r="J13" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2740,15 +2740,15 @@
       <c r="E20" s="7"/>
       <c r="F20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G20" s="17"/>
       <c r="J20" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -3186,7 +3186,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3792,17 +3792,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2062536-d537-4933-9a68-111b11088bac" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5A66FD54D20CA4E9AC02DD318E94D49" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53bde79962055b8cecc8a50be1004eac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de" xmlns:ns3="c2062536-d537-4933-9a68-111b11088bac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9b45dcf71f2936b8953ced3331ea195" ns2:_="" ns3:_="">
     <xsd:import namespace="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de"/>
@@ -4045,6 +4034,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2062536-d537-4933-9a68-111b11088bac" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
   <ds:schemaRefs>
@@ -4054,17 +4054,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2062536-d537-4933-9a68-111b11088bac"/>
-    <ds:schemaRef ds:uri="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E3157D-E74E-4DE5-B0FD-8DBD0694FA2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4081,4 +4070,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2062536-d537-4933-9a68-111b11088bac"/>
+    <ds:schemaRef ds:uri="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -503,7 +503,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2475,7 +2475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="D7" s="8">
         <f>COUNTIFS(J12:J15,TRUE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -2631,11 +2631,11 @@
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="str">
         <f>IF(J14,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G14" s="17"/>
       <c r="J14" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3783,15 +3783,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5A66FD54D20CA4E9AC02DD318E94D49" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53bde79962055b8cecc8a50be1004eac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de" xmlns:ns3="c2062536-d537-4933-9a68-111b11088bac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9b45dcf71f2936b8953ced3331ea195" ns2:_="" ns3:_="">
     <xsd:import namespace="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de"/>
@@ -4034,6 +4025,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4046,14 +4046,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E3157D-E74E-4DE5-B0FD-8DBD0694FA2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4072,6 +4064,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
   <ds:schemaRefs>

--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -431,7 +431,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="D7" s="8">
         <f>COUNTIFS(J12:J15,TRUE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -2591,11 +2591,11 @@
       <c r="E12" s="7"/>
       <c r="F12" s="6" t="str">
         <f>IF(J12,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G12" s="17"/>
       <c r="J12" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3783,6 +3783,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5A66FD54D20CA4E9AC02DD318E94D49" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53bde79962055b8cecc8a50be1004eac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de" xmlns:ns3="c2062536-d537-4933-9a68-111b11088bac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9b45dcf71f2936b8953ced3331ea195" ns2:_="" ns3:_="">
     <xsd:import namespace="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de"/>
@@ -4025,15 +4034,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4046,6 +4046,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E3157D-E74E-4DE5-B0FD-8DBD0694FA2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4064,14 +4072,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
   <ds:schemaRefs>

--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -435,11 +435,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2475,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="D7" s="8">
         <f>COUNTIFS(J12:J15,TRUE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="D8" s="8">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D9" s="8">
         <f>K39</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2651,11 +2651,11 @@
       <c r="E15" s="7"/>
       <c r="F15" s="6" t="str">
         <f>IF(J15,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G15" s="17"/>
       <c r="J15" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2812,15 +2812,15 @@
       <c r="E23" s="7"/>
       <c r="F23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G23" s="17"/>
       <c r="J23" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -2836,15 +2836,15 @@
       <c r="E24" s="7"/>
       <c r="F24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G24" s="17"/>
       <c r="J24" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -3186,7 +3186,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3783,15 +3783,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5A66FD54D20CA4E9AC02DD318E94D49" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53bde79962055b8cecc8a50be1004eac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de" xmlns:ns3="c2062536-d537-4933-9a68-111b11088bac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9b45dcf71f2936b8953ced3331ea195" ns2:_="" ns3:_="">
     <xsd:import namespace="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de"/>
@@ -4034,6 +4025,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4046,14 +4046,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E3157D-E74E-4DE5-B0FD-8DBD0694FA2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4072,6 +4064,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
   <ds:schemaRefs>

--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbannister1\workspace\AGA206\Roll-A-Ball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbannister1\Documents\GitHub\Roll-A-Ball\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>AGA206 Assessment 2 Checklist</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Come up with your own</t>
+  </si>
+  <si>
+    <t>Added in a no checkpoint mode</t>
+  </si>
+  <si>
+    <t>Added a death counter</t>
+  </si>
+  <si>
+    <t>Just to add the points of the death counter being added</t>
   </si>
 </sst>
 </file>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,19 +496,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2475,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2545,7 +2554,7 @@
       </c>
       <c r="D8" s="8">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2554,7 +2563,7 @@
       </c>
       <c r="D9" s="8">
         <f>K39</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3052,15 +3061,17 @@
       <c r="E33" s="7"/>
       <c r="F33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
-      </c>
-      <c r="G33" s="17"/>
+        <v>Done</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="J33" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
@@ -3100,15 +3111,17 @@
       <c r="E35" s="7"/>
       <c r="F35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
-      </c>
-      <c r="G35" s="17"/>
+        <v>Done</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="J35" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -3150,7 +3163,9 @@
         <f t="shared" si="2"/>
         <v>To Be Done</v>
       </c>
-      <c r="G37" s="17"/>
+      <c r="G37" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="J37" s="5" t="b">
         <v>0</v>
       </c>
@@ -3186,7 +3201,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3783,6 +3798,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5A66FD54D20CA4E9AC02DD318E94D49" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53bde79962055b8cecc8a50be1004eac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de" xmlns:ns3="c2062536-d537-4933-9a68-111b11088bac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9b45dcf71f2936b8953ced3331ea195" ns2:_="" ns3:_="">
     <xsd:import namespace="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de"/>
@@ -4025,15 +4049,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4046,6 +4061,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E3157D-E74E-4DE5-B0FD-8DBD0694FA2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4064,14 +4087,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
   <ds:schemaRefs>

--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbannister1\Documents\GitHub\Roll-A-Ball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Downloads\Desktop\Roll-A-Ball\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1F6E22C-0323-4E82-9CCC-776CFC363E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>AGA206 Assessment 2 Checklist</t>
   </si>
@@ -134,6 +136,9 @@
     <t>Punishing Walls</t>
   </si>
   <si>
+    <t>Just to add the points of the death counter being added</t>
+  </si>
+  <si>
     <t>Free Camera Mode</t>
   </si>
   <si>
@@ -146,14 +151,17 @@
     <t>Added a death counter</t>
   </si>
   <si>
-    <t>Just to add the points of the death counter being added</t>
+    <t>Maximilian Bannister</t>
+  </si>
+  <si>
+    <t>https://github.com/Oreo0107/Roll-A-Ball</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -182,6 +190,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -293,10 +308,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,7 +374,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -370,8 +386,13 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -520,7 +541,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2481,11 +2502,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2517,7 +2538,9 @@
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="26"/>
@@ -2528,7 +2551,9 @@
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="26"/>
@@ -2554,7 +2579,7 @@
       </c>
       <c r="D8" s="8">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2563,7 +2588,7 @@
       </c>
       <c r="D9" s="8">
         <f>K39</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2701,15 +2726,15 @@
       <c r="E18" s="7"/>
       <c r="F18" s="6" t="str">
         <f t="shared" ref="F18:F35" si="0">IF(J18,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G18" s="17"/>
       <c r="J18" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
         <f>IF(J18=TRUE,D18,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -3064,7 +3089,7 @@
         <v>Done</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J33" s="5" t="b">
         <v>1</v>
@@ -3079,7 +3104,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="19">
         <v>2</v>
@@ -3103,7 +3128,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" s="19">
         <v>2</v>
@@ -3114,7 +3139,7 @@
         <v>Done</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J35" s="5" t="b">
         <v>1</v>
@@ -3129,7 +3154,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" s="19">
         <v>2</v>
@@ -3153,7 +3178,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" s="19">
         <v>1</v>
@@ -3164,7 +3189,7 @@
         <v>To Be Done</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J37" s="5" t="b">
         <v>0</v>
@@ -3179,7 +3204,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" s="19">
         <v>1</v>
@@ -3201,7 +3226,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3234,16 +3259,19 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{1823F8C3-C81B-47FE-A379-43C81A7FEBB2}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId4" name="Check Box 11">
+            <control shapeId="1035" r:id="rId5" name="Check Box 11">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3265,7 +3293,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId5" name="Check Box 12">
+            <control shapeId="1036" r:id="rId6" name="Check Box 12">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3287,7 +3315,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId6" name="Check Box 13">
+            <control shapeId="1037" r:id="rId7" name="Check Box 13">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3309,7 +3337,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId7" name="Check Box 14">
+            <control shapeId="1038" r:id="rId8" name="Check Box 14">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3331,7 +3359,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId8" name="Check Box 30">
+            <control shapeId="1054" r:id="rId9" name="Check Box 30">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3353,7 +3381,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId9" name="Check Box 31">
+            <control shapeId="1055" r:id="rId10" name="Check Box 31">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3375,7 +3403,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId10" name="Check Box 32">
+            <control shapeId="1056" r:id="rId11" name="Check Box 32">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3397,7 +3425,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId11" name="Check Box 33">
+            <control shapeId="1057" r:id="rId12" name="Check Box 33">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3419,7 +3447,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId12" name="Check Box 35">
+            <control shapeId="1059" r:id="rId13" name="Check Box 35">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3441,7 +3469,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId13" name="Check Box 36">
+            <control shapeId="1060" r:id="rId14" name="Check Box 36">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3463,7 +3491,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId14" name="Check Box 38">
+            <control shapeId="1062" r:id="rId15" name="Check Box 38">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3485,7 +3513,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId15" name="Check Box 39">
+            <control shapeId="1063" r:id="rId16" name="Check Box 39">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3507,7 +3535,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId16" name="Check Box 41">
+            <control shapeId="1065" r:id="rId17" name="Check Box 41">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3529,7 +3557,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId17" name="Check Box 42">
+            <control shapeId="1066" r:id="rId18" name="Check Box 42">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3551,7 +3579,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId18" name="Check Box 43">
+            <control shapeId="1067" r:id="rId19" name="Check Box 43">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3573,7 +3601,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId19" name="Check Box 44">
+            <control shapeId="1068" r:id="rId20" name="Check Box 44">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3595,7 +3623,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId20" name="Check Box 46">
+            <control shapeId="1070" r:id="rId21" name="Check Box 46">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3617,7 +3645,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId21" name="Check Box 47">
+            <control shapeId="1071" r:id="rId22" name="Check Box 47">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3639,7 +3667,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId22" name="Check Box 48">
+            <control shapeId="1072" r:id="rId23" name="Check Box 48">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3661,7 +3689,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId23" name="Check Box 49">
+            <control shapeId="1073" r:id="rId24" name="Check Box 49">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3683,7 +3711,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId24" name="Check Box 51">
+            <control shapeId="1075" r:id="rId25" name="Check Box 51">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3705,7 +3733,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId25" name="Check Box 52">
+            <control shapeId="1076" r:id="rId26" name="Check Box 52">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3727,7 +3755,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId26" name="Check Box 53">
+            <control shapeId="1077" r:id="rId27" name="Check Box 53">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3749,7 +3777,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId27" name="Check Box 54">
+            <control shapeId="1078" r:id="rId28" name="Check Box 54">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3771,7 +3799,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId28" name="Check Box 55">
+            <control shapeId="1079" r:id="rId29" name="Check Box 55">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3798,6 +3826,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2062536-d537-4933-9a68-111b11088bac" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3806,7 +3845,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5A66FD54D20CA4E9AC02DD318E94D49" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53bde79962055b8cecc8a50be1004eac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de" xmlns:ns3="c2062536-d537-4933-9a68-111b11088bac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9b45dcf71f2936b8953ced3331ea195" ns2:_="" ns3:_="">
     <xsd:import namespace="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de"/>
@@ -4049,18 +4088,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2062536-d537-4933-9a68-111b11088bac" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de"/>
+    <ds:schemaRef ds:uri="c2062536-d537-4933-9a68-111b11088bac"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4068,7 +4113,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E3157D-E74E-4DE5-B0FD-8DBD0694FA2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4085,15 +4130,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2062536-d537-4933-9a68-111b11088bac"/>
-    <ds:schemaRef ds:uri="aabe51d3-f54d-4fdd-9fcd-70ffe0d760de"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>